--- a/biology/Botanique/Peloursin/Peloursin.xlsx
+++ b/biology/Botanique/Peloursin/Peloursin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le peloursin est un cépage français de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient de la vallée du Grésivaudan dans le département de l'Isère. En 1988, il couvrait 0,59 ha en France[réf. nécessaire]. On cultive un peu le peloursin en Californie et en Australie.
 Avec la syrah, il a servi de géniteur naturel du durif[réf. nécessaire].
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux, blanc à liseré carminé.
 Jeunes feuilles aranéeuses, à plages bronzés.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive soit environ 20 jours après le Chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille petite. La grappe est cylindrique et compacte. Le cépage est de bonne vigueur. Le cépage est sensible à la pourriture grise et au black-rot. Il produit des vins ordinaires, colorés et astringents[réf. nécessaire].
 </t>
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le peloursin est connu sous les noms de belossard, chatille, corsin, durazaine, duret, dureza (pas confondre avec la dureza), durif (à tort car ce cépage existe), durif fourchu, famette, fumette, feunette, gondran, gronnay, gros Béclan, gros nat, gros noir, gros noirin, gros Plant, mal noir, mauvais noir, mosaguin, parlouseau ou parlousseau, pelaursin, pélorsin, pelossard, pellorcin, pellossard noir, pellourcin, plant d´Abas, plant de Paris, pourret, pourrot, saler, salet, salis, sella, soler, spartin, treillin, verné et vert noir[réf. nécessaire].
 </t>
